--- a/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C49C84-8744-5341-8B36-433CD3CC100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA5233-9516-1543-A1B2-56F733BDEE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="10840" windowWidth="37620" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="109">
   <si>
     <t>DOI</t>
   </si>
@@ -269,13 +269,91 @@
   </si>
   <si>
     <t>Percentage variant allele frequency</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>IC50</t>
+  </si>
+  <si>
+    <t>RNA count</t>
+  </si>
+  <si>
+    <t>Equilibrium constant</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>Bioluminescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Counts</t>
+  </si>
+  <si>
+    <t>RPKM</t>
+  </si>
+  <si>
+    <t>Radiant flux</t>
+  </si>
+  <si>
+    <t>Cell viability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +367,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -298,7 +384,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -332,17 +418,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,15 +747,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="232" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="C60" zoomScale="232" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,8 +775,23 @@
       <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -687,8 +807,23 @@
       <c r="E2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -704,8 +839,23 @@
       <c r="E3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -721,8 +871,23 @@
       <c r="E4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -738,8 +903,23 @@
       <c r="E5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -755,8 +935,23 @@
       <c r="E6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -772,8 +967,23 @@
       <c r="E7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -789,8 +999,23 @@
       <c r="E8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -806,8 +1031,23 @@
       <c r="E9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -823,8 +1063,23 @@
       <c r="E10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -840,8 +1095,23 @@
       <c r="E11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -857,8 +1127,23 @@
       <c r="E12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -874,8 +1159,23 @@
       <c r="E13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -891,8 +1191,23 @@
       <c r="E14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -908,8 +1223,23 @@
       <c r="E15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -925,8 +1255,23 @@
       <c r="E16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -942,8 +1287,23 @@
       <c r="E17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -959,8 +1319,23 @@
       <c r="E18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -976,8 +1351,23 @@
       <c r="E19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -993,8 +1383,23 @@
       <c r="E20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1010,8 +1415,23 @@
       <c r="E21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1027,8 +1447,23 @@
       <c r="E22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1044,8 +1479,23 @@
       <c r="E23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1061,8 +1511,23 @@
       <c r="E24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1078,8 +1543,23 @@
       <c r="E25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1095,8 +1575,23 @@
       <c r="E26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1112,8 +1607,23 @@
       <c r="E27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1129,8 +1639,23 @@
       <c r="E28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1146,8 +1671,23 @@
       <c r="E29" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1163,8 +1703,23 @@
       <c r="E30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1180,8 +1735,23 @@
       <c r="E31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1197,8 +1767,23 @@
       <c r="E32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1214,8 +1799,23 @@
       <c r="E33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1231,8 +1831,23 @@
       <c r="E34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1248,8 +1863,23 @@
       <c r="E35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1265,8 +1895,23 @@
       <c r="E36" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1282,8 +1927,23 @@
       <c r="E37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1299,8 +1959,23 @@
       <c r="E38" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" t="s">
+        <v>100</v>
+      </c>
+      <c r="J38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1316,8 +1991,23 @@
       <c r="E39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -1333,8 +2023,23 @@
       <c r="E40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -1350,8 +2055,23 @@
       <c r="E41" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -1367,8 +2087,23 @@
       <c r="E42" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1384,8 +2119,23 @@
       <c r="E43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" t="s">
+        <v>105</v>
+      </c>
+      <c r="J43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1401,8 +2151,23 @@
       <c r="E44" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -1418,8 +2183,23 @@
       <c r="E45" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1435,8 +2215,23 @@
       <c r="E46" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1452,8 +2247,23 @@
       <c r="E47" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1469,8 +2279,23 @@
       <c r="E48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -1486,8 +2311,23 @@
       <c r="E49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" t="s">
+        <v>107</v>
+      </c>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -1503,8 +2343,23 @@
       <c r="E50" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -1520,8 +2375,23 @@
       <c r="E51" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51" t="s">
+        <v>107</v>
+      </c>
+      <c r="J51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1537,8 +2407,23 @@
       <c r="E52" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1554,8 +2439,23 @@
       <c r="E53" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -1571,8 +2471,23 @@
       <c r="E54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -1588,8 +2503,23 @@
       <c r="E55" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" t="s">
+        <v>107</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -1605,8 +2535,23 @@
       <c r="E56" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" t="s">
+        <v>107</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -1622,8 +2567,23 @@
       <c r="E57" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" t="s">
+        <v>107</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -1639,8 +2599,23 @@
       <c r="E58" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" t="s">
+        <v>107</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -1656,8 +2631,23 @@
       <c r="E59" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" t="s">
+        <v>107</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -1673,8 +2663,23 @@
       <c r="E60" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" t="s">
+        <v>102</v>
+      </c>
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -1690,8 +2695,23 @@
       <c r="E61" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -1707,8 +2727,23 @@
       <c r="E62" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -1724,8 +2759,23 @@
       <c r="E63" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -1741,8 +2791,23 @@
       <c r="E64" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" t="s">
+        <v>100</v>
+      </c>
+      <c r="J64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -1758,8 +2823,23 @@
       <c r="E65" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" t="s">
+        <v>108</v>
+      </c>
+      <c r="I65" t="s">
+        <v>101</v>
+      </c>
+      <c r="J65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -1775,8 +2855,23 @@
       <c r="E66" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" t="s">
+        <v>101</v>
+      </c>
+      <c r="J66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>45</v>
       </c>
@@ -1792,8 +2887,23 @@
       <c r="E67" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" t="s">
+        <v>101</v>
+      </c>
+      <c r="J67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -1809,8 +2919,23 @@
       <c r="E68" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+      <c r="J68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -1826,8 +2951,23 @@
       <c r="E69" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" t="s">
+        <v>101</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+      <c r="J69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>46</v>
       </c>
@@ -1843,8 +2983,23 @@
       <c r="E70" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+      <c r="J70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -1860,8 +3015,23 @@
       <c r="E71" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" t="s">
+        <v>97</v>
+      </c>
+      <c r="I71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -1876,6 +3046,21 @@
       </c>
       <c r="E72" t="s">
         <v>70</v>
+      </c>
+      <c r="F72" t="s">
+        <v>90</v>
+      </c>
+      <c r="G72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72" t="s">
+        <v>70</v>
+      </c>
+      <c r="J72" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA5233-9516-1543-A1B2-56F733BDEE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DEC8F9-F35E-AD44-AC67-DCBB8E536B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="10840" windowWidth="37620" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,14 +749,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C60" zoomScale="232" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="C69" zoomScale="232" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">

--- a/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DEC8F9-F35E-AD44-AC67-DCBB8E536B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDCF6C4-CE61-5943-936F-FADA6BC2814F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="10840" windowWidth="37620" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="110">
   <si>
     <t>DOI</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>Cell viability</t>
+  </si>
+  <si>
+    <t>Statistics</t>
   </si>
 </sst>
 </file>
@@ -749,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C69" zoomScale="232" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="232" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2163,7 +2166,7 @@
         <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="J44" t="s">
         <v>88</v>
@@ -2195,7 +2198,7 @@
         <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="J45" t="s">
         <v>88</v>
@@ -2227,7 +2230,7 @@
         <v>70</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="J46" t="s">
         <v>88</v>
@@ -2259,7 +2262,7 @@
         <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="J47" t="s">
         <v>88</v>
@@ -2291,7 +2294,7 @@
         <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="J48" t="s">
         <v>88</v>
@@ -3059,7 +3062,7 @@
         <v>70</v>
       </c>
       <c r="I72" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="J72" t="s">
         <v>88</v>

--- a/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDCF6C4-CE61-5943-936F-FADA6BC2814F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F1EDB6-FCF5-F743-91A9-9178A61E979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="10840" windowWidth="37620" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="109">
   <si>
     <t>DOI</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>Relative luminescence</t>
-  </si>
-  <si>
-    <t>Counts</t>
   </si>
   <si>
     <t>RPKM</t>
@@ -752,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="232" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="232" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2131,10 +2128,10 @@
         <v>91</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s">
         <v>88</v>
@@ -2166,7 +2163,7 @@
         <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J44" t="s">
         <v>88</v>
@@ -2198,7 +2195,7 @@
         <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J45" t="s">
         <v>88</v>
@@ -2230,7 +2227,7 @@
         <v>70</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J46" t="s">
         <v>88</v>
@@ -2262,7 +2259,7 @@
         <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J47" t="s">
         <v>88</v>
@@ -2294,7 +2291,7 @@
         <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J48" t="s">
         <v>88</v>
@@ -2326,7 +2323,7 @@
         <v>103</v>
       </c>
       <c r="I49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J49" t="s">
         <v>88</v>
@@ -2358,7 +2355,7 @@
         <v>103</v>
       </c>
       <c r="I50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J50" t="s">
         <v>88</v>
@@ -2390,7 +2387,7 @@
         <v>103</v>
       </c>
       <c r="I51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J51" t="s">
         <v>88</v>
@@ -2422,7 +2419,7 @@
         <v>103</v>
       </c>
       <c r="I52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J52" t="s">
         <v>88</v>
@@ -2454,7 +2451,7 @@
         <v>103</v>
       </c>
       <c r="I53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J53" t="s">
         <v>88</v>
@@ -2486,7 +2483,7 @@
         <v>103</v>
       </c>
       <c r="I54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J54" t="s">
         <v>88</v>
@@ -2518,7 +2515,7 @@
         <v>103</v>
       </c>
       <c r="I55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J55" t="s">
         <v>88</v>
@@ -2550,7 +2547,7 @@
         <v>103</v>
       </c>
       <c r="I56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J56" t="s">
         <v>88</v>
@@ -2582,7 +2579,7 @@
         <v>103</v>
       </c>
       <c r="I57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J57" t="s">
         <v>88</v>
@@ -2614,7 +2611,7 @@
         <v>103</v>
       </c>
       <c r="I58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J58" t="s">
         <v>88</v>
@@ -2646,7 +2643,7 @@
         <v>103</v>
       </c>
       <c r="I59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J59" t="s">
         <v>88</v>
@@ -2835,7 +2832,7 @@
         <v>101</v>
       </c>
       <c r="H65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I65" t="s">
         <v>101</v>
@@ -3062,7 +3059,7 @@
         <v>70</v>
       </c>
       <c r="I72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J72" t="s">
         <v>88</v>

--- a/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F1EDB6-FCF5-F743-91A9-9178A61E979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0F24E5-4158-C94D-A298-9AD49A53A5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="10840" windowWidth="37620" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="181">
   <si>
     <t>DOI</t>
   </si>
@@ -347,6 +347,222 @@
   </si>
   <si>
     <t>Statistics</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-022-00508-5_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-022-00508-5_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-022-00508-5_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00523-0_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00524-z_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00524-z_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00524-z_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00524-z_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00524-z_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00524-z_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00524-z_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig14</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig15</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig16</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig17</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig18</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig19</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig20</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig21</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig22</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig23</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig24</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig25</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00527-w_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00534-x_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00534-x_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00536-9_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00536-9_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00536-9_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00539-6_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00547-6_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00547-6_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00547-6_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00547-6_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00547-6_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00563-6_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00573-4_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00589-w_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00589-w_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00614-y_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00626-8_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00630-y_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00642-8_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00642-8_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00642-8_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00642-8_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00653-5_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00653-5_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s43018-023-00656-2_log_fig1</t>
   </si>
 </sst>
 </file>
@@ -747,74 +963,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="232" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="232" workbookViewId="0">
+      <selection activeCell="A38" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
       <c r="H2" t="s">
         <v>100</v>
       </c>
@@ -822,31 +1041,34 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
-        <v>100</v>
-      </c>
       <c r="H3" t="s">
         <v>100</v>
       </c>
@@ -854,31 +1076,34 @@
         <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>89</v>
       </c>
-      <c r="G4" t="s">
-        <v>100</v>
-      </c>
       <c r="H4" t="s">
         <v>100</v>
       </c>
@@ -886,575 +1111,629 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
         <v>96</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>95</v>
       </c>
-      <c r="J5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" t="s">
-        <v>90</v>
-      </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
         <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>90</v>
-      </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
-        <v>100</v>
-      </c>
       <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
         <v>103</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>104</v>
       </c>
-      <c r="J8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
       <c r="H9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s">
         <v>103</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>89</v>
       </c>
-      <c r="G10" t="s">
-        <v>100</v>
-      </c>
       <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
         <v>103</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>89</v>
       </c>
-      <c r="G11" t="s">
-        <v>100</v>
-      </c>
       <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
         <v>103</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>104</v>
       </c>
-      <c r="J11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
         <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
         <v>92</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>93</v>
       </c>
-      <c r="J13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>59</v>
       </c>
-      <c r="F14" t="s">
-        <v>90</v>
-      </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
         <v>92</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>93</v>
       </c>
-      <c r="J14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
         <v>92</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>93</v>
       </c>
-      <c r="J15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
         <v>92</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>93</v>
       </c>
-      <c r="J16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="F17" t="s">
-        <v>90</v>
-      </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
         <v>92</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>93</v>
       </c>
-      <c r="J17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
-        <v>90</v>
-      </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" t="s">
         <v>92</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>93</v>
       </c>
-      <c r="J18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" t="s">
-        <v>90</v>
-      </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" t="s">
         <v>92</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>93</v>
       </c>
-      <c r="J19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
         <v>92</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>93</v>
       </c>
-      <c r="J20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>60</v>
       </c>
-      <c r="F21" t="s">
-        <v>90</v>
-      </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
         <v>92</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>93</v>
       </c>
-      <c r="J21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>89</v>
       </c>
-      <c r="G22" t="s">
-        <v>100</v>
-      </c>
       <c r="H22" t="s">
         <v>100</v>
       </c>
@@ -1462,31 +1741,34 @@
         <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>89</v>
       </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
       <c r="H23" t="s">
         <v>100</v>
       </c>
@@ -1494,31 +1776,34 @@
         <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>56</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>89</v>
       </c>
-      <c r="G24" t="s">
-        <v>100</v>
-      </c>
       <c r="H24" t="s">
         <v>100</v>
       </c>
@@ -1526,31 +1811,34 @@
         <v>100</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>89</v>
       </c>
-      <c r="G25" t="s">
-        <v>100</v>
-      </c>
       <c r="H25" t="s">
         <v>100</v>
       </c>
@@ -1558,159 +1846,174 @@
         <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>64</v>
       </c>
-      <c r="F26" t="s">
-        <v>90</v>
-      </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" t="s">
         <v>92</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>93</v>
       </c>
-      <c r="J26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="K26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>65</v>
       </c>
-      <c r="F27" t="s">
-        <v>90</v>
-      </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
         <v>92</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>93</v>
       </c>
-      <c r="J27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>64</v>
       </c>
-      <c r="F28" t="s">
-        <v>90</v>
-      </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" t="s">
         <v>92</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>93</v>
       </c>
-      <c r="J28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>65</v>
       </c>
-      <c r="F29" t="s">
-        <v>90</v>
-      </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" t="s">
         <v>92</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>93</v>
       </c>
-      <c r="J29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>66</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>89</v>
       </c>
-      <c r="G30" t="s">
-        <v>100</v>
-      </c>
       <c r="H30" t="s">
         <v>100</v>
       </c>
@@ -1718,31 +2021,34 @@
         <v>100</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>56</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>89</v>
       </c>
-      <c r="G31" t="s">
-        <v>100</v>
-      </c>
       <c r="H31" t="s">
         <v>100</v>
       </c>
@@ -1750,223 +2056,244 @@
         <v>100</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
       </c>
-      <c r="F32" t="s">
-        <v>90</v>
-      </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" t="s">
         <v>92</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>93</v>
       </c>
-      <c r="J32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>57</v>
       </c>
-      <c r="F33" t="s">
-        <v>90</v>
-      </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" t="s">
         <v>92</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>93</v>
       </c>
-      <c r="J33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>58</v>
       </c>
-      <c r="F34" t="s">
-        <v>90</v>
-      </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" t="s">
         <v>92</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>93</v>
       </c>
-      <c r="J34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>58</v>
       </c>
-      <c r="F35" t="s">
-        <v>90</v>
-      </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" t="s">
         <v>92</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>93</v>
       </c>
-      <c r="J35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>33</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>57</v>
       </c>
-      <c r="F36" t="s">
-        <v>90</v>
-      </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" t="s">
         <v>92</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>93</v>
       </c>
-      <c r="J36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>57</v>
       </c>
-      <c r="F37" t="s">
-        <v>90</v>
-      </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" t="s">
         <v>92</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>93</v>
       </c>
-      <c r="J37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="K37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>67</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>89</v>
       </c>
-      <c r="G38" t="s">
-        <v>100</v>
-      </c>
       <c r="H38" t="s">
         <v>100</v>
       </c>
@@ -1974,31 +2301,34 @@
         <v>100</v>
       </c>
       <c r="J38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>67</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>89</v>
       </c>
-      <c r="G39" t="s">
-        <v>100</v>
-      </c>
       <c r="H39" t="s">
         <v>100</v>
       </c>
@@ -2006,799 +2336,874 @@
         <v>100</v>
       </c>
       <c r="J39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>68</v>
       </c>
-      <c r="F40" t="s">
-        <v>90</v>
-      </c>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" t="s">
         <v>98</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>99</v>
       </c>
-      <c r="J40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="K40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>68</v>
       </c>
-      <c r="F41" t="s">
-        <v>90</v>
-      </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" t="s">
         <v>98</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>99</v>
       </c>
-      <c r="J41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="K41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>68</v>
       </c>
-      <c r="F42" t="s">
-        <v>90</v>
-      </c>
       <c r="G42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" t="s">
         <v>98</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>99</v>
       </c>
-      <c r="J42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="K42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
         <v>37</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>69</v>
       </c>
-      <c r="F43" t="s">
-        <v>90</v>
-      </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" t="s">
         <v>105</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>93</v>
       </c>
-      <c r="J43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="K43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>70</v>
       </c>
-      <c r="F44" t="s">
-        <v>90</v>
-      </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" t="s">
         <v>70</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>108</v>
       </c>
-      <c r="J44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="K44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>70</v>
       </c>
-      <c r="F45" t="s">
-        <v>90</v>
-      </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" t="s">
         <v>70</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>108</v>
       </c>
-      <c r="J45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="K45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>70</v>
       </c>
-      <c r="F46" t="s">
-        <v>90</v>
-      </c>
       <c r="G46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" t="s">
         <v>70</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>108</v>
       </c>
-      <c r="J46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="K46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>70</v>
       </c>
-      <c r="F47" t="s">
-        <v>90</v>
-      </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" t="s">
         <v>70</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>108</v>
       </c>
-      <c r="J47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="K47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>13</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
       <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>70</v>
       </c>
-      <c r="F48" t="s">
-        <v>90</v>
-      </c>
       <c r="G48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" t="s">
         <v>70</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>108</v>
       </c>
-      <c r="J48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="K48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
         <v>39</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
       <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>71</v>
       </c>
-      <c r="F49" t="s">
-        <v>90</v>
-      </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" t="s">
         <v>103</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>106</v>
       </c>
-      <c r="J49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="K49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
         <v>39</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>17</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
       <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>72</v>
       </c>
-      <c r="F50" t="s">
-        <v>90</v>
-      </c>
       <c r="G50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" t="s">
         <v>103</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>106</v>
       </c>
-      <c r="J50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="K50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>18</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>73</v>
       </c>
-      <c r="F51" t="s">
-        <v>90</v>
-      </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" t="s">
         <v>103</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>106</v>
       </c>
-      <c r="J51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="K51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
         <v>39</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>72</v>
       </c>
-      <c r="F52" t="s">
-        <v>90</v>
-      </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" t="s">
         <v>103</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>106</v>
       </c>
-      <c r="J52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="K52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
         <v>39</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>73</v>
       </c>
-      <c r="F53" t="s">
-        <v>90</v>
-      </c>
       <c r="G53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" t="s">
         <v>103</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>106</v>
       </c>
-      <c r="J53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="K53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s">
         <v>39</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>12</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>74</v>
       </c>
-      <c r="F54" t="s">
-        <v>90</v>
-      </c>
       <c r="G54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" t="s">
         <v>103</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>106</v>
       </c>
-      <c r="J54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="K54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>74</v>
       </c>
-      <c r="F55" t="s">
-        <v>90</v>
-      </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" t="s">
         <v>103</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>106</v>
       </c>
-      <c r="J55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="K55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
         <v>39</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>14</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>74</v>
       </c>
-      <c r="F56" t="s">
-        <v>90</v>
-      </c>
       <c r="G56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" t="s">
         <v>103</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>106</v>
       </c>
-      <c r="J56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="K56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>15</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>71</v>
       </c>
-      <c r="F57" t="s">
-        <v>90</v>
-      </c>
       <c r="G57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" t="s">
         <v>103</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>106</v>
       </c>
-      <c r="J57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="K57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" t="s">
         <v>39</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>33</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>71</v>
       </c>
-      <c r="F58" t="s">
-        <v>90</v>
-      </c>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" t="s">
         <v>103</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>106</v>
       </c>
-      <c r="J58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="K58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
         <v>39</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>34</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>71</v>
       </c>
-      <c r="F59" t="s">
-        <v>90</v>
-      </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" t="s">
         <v>103</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>106</v>
       </c>
-      <c r="J59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="K59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
         <v>40</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>75</v>
       </c>
-      <c r="F60" t="s">
-        <v>90</v>
-      </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" t="s">
         <v>102</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>95</v>
       </c>
-      <c r="J60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="K60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
         <v>41</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>76</v>
       </c>
-      <c r="F61" t="s">
-        <v>90</v>
-      </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" t="s">
         <v>92</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>93</v>
       </c>
-      <c r="J61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="K61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
         <v>41</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>8</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
       <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>76</v>
       </c>
-      <c r="F62" t="s">
-        <v>90</v>
-      </c>
       <c r="G62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" t="s">
         <v>92</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>93</v>
       </c>
-      <c r="J62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="K62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" t="s">
         <v>42</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
       <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>77</v>
       </c>
-      <c r="F63" t="s">
-        <v>90</v>
-      </c>
       <c r="G63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I63" t="s">
         <v>95</v>
       </c>
       <c r="J63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" t="s">
         <v>43</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
         <v>78</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>89</v>
       </c>
-      <c r="G64" t="s">
-        <v>100</v>
-      </c>
       <c r="H64" t="s">
         <v>100</v>
       </c>
@@ -2806,62 +3211,68 @@
         <v>100</v>
       </c>
       <c r="J64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" t="s">
         <v>44</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
         <v>79</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>89</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>101</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>107</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>101</v>
       </c>
-      <c r="J65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="K65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
         <v>45</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
       <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
         <v>80</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>89</v>
-      </c>
-      <c r="G66" t="s">
-        <v>101</v>
       </c>
       <c r="H66" t="s">
         <v>101</v>
@@ -2870,30 +3281,33 @@
         <v>101</v>
       </c>
       <c r="J66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="K66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
         <v>45</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
       <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
         <v>82</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>89</v>
-      </c>
-      <c r="G67" t="s">
-        <v>101</v>
       </c>
       <c r="H67" t="s">
         <v>101</v>
@@ -2902,30 +3316,33 @@
         <v>101</v>
       </c>
       <c r="J67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="K67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" t="s">
         <v>45</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>9</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
       <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>82</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>89</v>
-      </c>
-      <c r="G68" t="s">
-        <v>101</v>
       </c>
       <c r="H68" t="s">
         <v>101</v>
@@ -2934,30 +3351,33 @@
         <v>101</v>
       </c>
       <c r="J68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="K68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" t="s">
         <v>45</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>12</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
       <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>82</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>89</v>
-      </c>
-      <c r="G69" t="s">
-        <v>101</v>
       </c>
       <c r="H69" t="s">
         <v>101</v>
@@ -2966,102 +3386,114 @@
         <v>101</v>
       </c>
       <c r="J69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="K69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" t="s">
         <v>46</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
       <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>81</v>
       </c>
-      <c r="F70" t="s">
-        <v>90</v>
-      </c>
       <c r="G70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s">
+        <v>91</v>
+      </c>
+      <c r="I70" t="s">
         <v>97</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>93</v>
       </c>
-      <c r="J70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="K70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" t="s">
         <v>46</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>8</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
       <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>81</v>
       </c>
-      <c r="F71" t="s">
-        <v>90</v>
-      </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" t="s">
         <v>97</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>93</v>
       </c>
-      <c r="J71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="K71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" t="s">
         <v>47</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>70</v>
       </c>
-      <c r="F72" t="s">
-        <v>90</v>
-      </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" t="s">
         <v>70</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>108</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>88</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0F24E5-4158-C94D-A298-9AD49A53A5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4A8206-25EC-CF40-AF7E-26AA6942F7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="182">
   <si>
     <t>DOI</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>10.1038:s43018-023-00656-2_log_fig1</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -965,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="232" workbookViewId="0">
-      <selection activeCell="A38" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="232" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1184,7 @@
         <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
         <v>88</v>
@@ -1216,7 +1219,7 @@
         <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="K7" t="s">
         <v>88</v>
@@ -1391,7 +1394,7 @@
         <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="K12" t="s">
         <v>88</v>

--- a/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4A8206-25EC-CF40-AF7E-26AA6942F7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CCAE66-6A2A-2645-8A87-A69A75D80F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="232" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="G54" zoomScale="232" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
         <v>103</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
       </c>
       <c r="K8" t="s">
         <v>88</v>
@@ -1286,10 +1286,10 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
         <v>103</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
       </c>
       <c r="K9" t="s">
         <v>88</v>
@@ -1321,10 +1321,10 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
         <v>103</v>
-      </c>
-      <c r="J10" t="s">
-        <v>104</v>
       </c>
       <c r="K10" t="s">
         <v>88</v>
@@ -1356,10 +1356,10 @@
         <v>100</v>
       </c>
       <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
         <v>103</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
       </c>
       <c r="K11" t="s">
         <v>88</v>
@@ -2686,10 +2686,10 @@
         <v>91</v>
       </c>
       <c r="I49" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" t="s">
         <v>103</v>
-      </c>
-      <c r="J49" t="s">
-        <v>106</v>
       </c>
       <c r="K49" t="s">
         <v>88</v>
@@ -2721,10 +2721,10 @@
         <v>91</v>
       </c>
       <c r="I50" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" t="s">
         <v>103</v>
-      </c>
-      <c r="J50" t="s">
-        <v>106</v>
       </c>
       <c r="K50" t="s">
         <v>88</v>
@@ -2756,10 +2756,10 @@
         <v>91</v>
       </c>
       <c r="I51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" t="s">
         <v>103</v>
-      </c>
-      <c r="J51" t="s">
-        <v>106</v>
       </c>
       <c r="K51" t="s">
         <v>88</v>
@@ -2791,10 +2791,10 @@
         <v>91</v>
       </c>
       <c r="I52" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" t="s">
         <v>103</v>
-      </c>
-      <c r="J52" t="s">
-        <v>106</v>
       </c>
       <c r="K52" t="s">
         <v>88</v>
@@ -2826,10 +2826,10 @@
         <v>91</v>
       </c>
       <c r="I53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" t="s">
         <v>103</v>
-      </c>
-      <c r="J53" t="s">
-        <v>106</v>
       </c>
       <c r="K53" t="s">
         <v>88</v>
@@ -2861,10 +2861,10 @@
         <v>91</v>
       </c>
       <c r="I54" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" t="s">
         <v>103</v>
-      </c>
-      <c r="J54" t="s">
-        <v>106</v>
       </c>
       <c r="K54" t="s">
         <v>88</v>
@@ -2896,10 +2896,10 @@
         <v>91</v>
       </c>
       <c r="I55" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" t="s">
         <v>103</v>
-      </c>
-      <c r="J55" t="s">
-        <v>106</v>
       </c>
       <c r="K55" t="s">
         <v>88</v>
@@ -2931,10 +2931,10 @@
         <v>91</v>
       </c>
       <c r="I56" t="s">
+        <v>106</v>
+      </c>
+      <c r="J56" t="s">
         <v>103</v>
-      </c>
-      <c r="J56" t="s">
-        <v>106</v>
       </c>
       <c r="K56" t="s">
         <v>88</v>
@@ -2966,10 +2966,10 @@
         <v>91</v>
       </c>
       <c r="I57" t="s">
+        <v>106</v>
+      </c>
+      <c r="J57" t="s">
         <v>103</v>
-      </c>
-      <c r="J57" t="s">
-        <v>106</v>
       </c>
       <c r="K57" t="s">
         <v>88</v>
@@ -3001,10 +3001,10 @@
         <v>91</v>
       </c>
       <c r="I58" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" t="s">
         <v>103</v>
-      </c>
-      <c r="J58" t="s">
-        <v>106</v>
       </c>
       <c r="K58" t="s">
         <v>88</v>
@@ -3036,10 +3036,10 @@
         <v>91</v>
       </c>
       <c r="I59" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" t="s">
         <v>103</v>
-      </c>
-      <c r="J59" t="s">
-        <v>106</v>
       </c>
       <c r="K59" t="s">
         <v>88</v>

--- a/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CCAE66-6A2A-2645-8A87-A69A75D80F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F411998-25DC-1442-BFAF-8BCEF30F3CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="178">
   <si>
     <t>DOI</t>
   </si>
@@ -310,18 +310,6 @@
     <t>Concentration</t>
   </si>
   <si>
-    <t>IC50</t>
-  </si>
-  <si>
-    <t>RNA count</t>
-  </si>
-  <si>
-    <t>Equilibrium constant</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
@@ -337,9 +325,6 @@
     <t>Relative luminescence</t>
   </si>
   <si>
-    <t>RPKM</t>
-  </si>
-  <si>
     <t>Radiant flux</t>
   </si>
   <si>
@@ -566,6 +551,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Characteristic concentration</t>
   </si>
 </sst>
 </file>
@@ -968,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G54" zoomScale="232" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49:J59"/>
+    <sheetView tabSelected="1" topLeftCell="F50" zoomScale="232" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -982,7 +970,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1017,7 +1005,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1038,13 +1026,13 @@
         <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
         <v>88</v>
@@ -1052,7 +1040,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1073,13 +1061,13 @@
         <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
         <v>88</v>
@@ -1087,7 +1075,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1108,13 +1096,13 @@
         <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
         <v>88</v>
@@ -1122,7 +1110,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1146,7 +1134,7 @@
         <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="J5" t="s">
         <v>95</v>
@@ -1157,7 +1145,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1184,7 +1172,7 @@
         <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K6" t="s">
         <v>88</v>
@@ -1192,7 +1180,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1219,7 +1207,7 @@
         <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K7" t="s">
         <v>88</v>
@@ -1227,7 +1215,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1248,13 +1236,13 @@
         <v>89</v>
       </c>
       <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
         <v>100</v>
       </c>
-      <c r="I8" t="s">
-        <v>104</v>
-      </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
         <v>88</v>
@@ -1262,7 +1250,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1283,13 +1271,13 @@
         <v>89</v>
       </c>
       <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
         <v>100</v>
       </c>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
         <v>88</v>
@@ -1297,7 +1285,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1318,13 +1306,13 @@
         <v>89</v>
       </c>
       <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
         <v>100</v>
       </c>
-      <c r="I10" t="s">
-        <v>104</v>
-      </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
         <v>88</v>
@@ -1332,7 +1320,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1353,13 +1341,13 @@
         <v>89</v>
       </c>
       <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
         <v>100</v>
       </c>
-      <c r="I11" t="s">
-        <v>104</v>
-      </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
         <v>88</v>
@@ -1367,7 +1355,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1394,7 +1382,7 @@
         <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K12" t="s">
         <v>88</v>
@@ -1402,7 +1390,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1437,7 +1425,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1472,7 +1460,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1507,7 +1495,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1542,7 +1530,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1577,7 +1565,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1612,7 +1600,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1647,7 +1635,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1682,7 +1670,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1717,7 +1705,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -1738,13 +1726,13 @@
         <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s">
         <v>88</v>
@@ -1752,7 +1740,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -1773,13 +1761,13 @@
         <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s">
         <v>88</v>
@@ -1787,7 +1775,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -1808,13 +1796,13 @@
         <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s">
         <v>88</v>
@@ -1822,7 +1810,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -1843,13 +1831,13 @@
         <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
         <v>88</v>
@@ -1857,7 +1845,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1892,7 +1880,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -1927,7 +1915,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1962,7 +1950,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1997,7 +1985,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -2018,13 +2006,13 @@
         <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s">
         <v>88</v>
@@ -2032,7 +2020,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -2053,13 +2041,13 @@
         <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s">
         <v>88</v>
@@ -2067,7 +2055,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -2102,7 +2090,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -2137,7 +2125,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -2172,7 +2160,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -2207,7 +2195,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -2242,7 +2230,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -2277,7 +2265,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -2298,13 +2286,13 @@
         <v>89</v>
       </c>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s">
         <v>88</v>
@@ -2312,7 +2300,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -2333,13 +2321,13 @@
         <v>89</v>
       </c>
       <c r="H39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s">
         <v>88</v>
@@ -2347,7 +2335,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
@@ -2371,10 +2359,10 @@
         <v>91</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s">
         <v>88</v>
@@ -2382,7 +2370,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
@@ -2406,10 +2394,10 @@
         <v>91</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="J41" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s">
         <v>88</v>
@@ -2417,7 +2405,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -2441,10 +2429,10 @@
         <v>91</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s">
         <v>88</v>
@@ -2452,7 +2440,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -2476,7 +2464,7 @@
         <v>91</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s">
         <v>93</v>
@@ -2487,7 +2475,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
@@ -2514,7 +2502,7 @@
         <v>70</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s">
         <v>88</v>
@@ -2522,7 +2510,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
@@ -2549,7 +2537,7 @@
         <v>70</v>
       </c>
       <c r="J45" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K45" t="s">
         <v>88</v>
@@ -2557,7 +2545,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
@@ -2584,7 +2572,7 @@
         <v>70</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s">
         <v>88</v>
@@ -2592,7 +2580,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
@@ -2619,7 +2607,7 @@
         <v>70</v>
       </c>
       <c r="J47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K47" t="s">
         <v>88</v>
@@ -2627,7 +2615,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -2654,7 +2642,7 @@
         <v>70</v>
       </c>
       <c r="J48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s">
         <v>88</v>
@@ -2662,7 +2650,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -2686,10 +2674,10 @@
         <v>91</v>
       </c>
       <c r="I49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s">
         <v>88</v>
@@ -2697,7 +2685,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -2721,10 +2709,10 @@
         <v>91</v>
       </c>
       <c r="I50" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s">
         <v>88</v>
@@ -2732,7 +2720,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -2756,10 +2744,10 @@
         <v>91</v>
       </c>
       <c r="I51" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J51" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s">
         <v>88</v>
@@ -2767,7 +2755,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -2791,10 +2779,10 @@
         <v>91</v>
       </c>
       <c r="I52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K52" t="s">
         <v>88</v>
@@ -2802,7 +2790,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -2826,10 +2814,10 @@
         <v>91</v>
       </c>
       <c r="I53" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J53" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K53" t="s">
         <v>88</v>
@@ -2837,7 +2825,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -2861,10 +2849,10 @@
         <v>91</v>
       </c>
       <c r="I54" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J54" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s">
         <v>88</v>
@@ -2872,7 +2860,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -2896,10 +2884,10 @@
         <v>91</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K55" t="s">
         <v>88</v>
@@ -2907,7 +2895,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -2931,10 +2919,10 @@
         <v>91</v>
       </c>
       <c r="I56" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K56" t="s">
         <v>88</v>
@@ -2942,7 +2930,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -2966,10 +2954,10 @@
         <v>91</v>
       </c>
       <c r="I57" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J57" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K57" t="s">
         <v>88</v>
@@ -2977,7 +2965,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3001,10 +2989,10 @@
         <v>91</v>
       </c>
       <c r="I58" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J58" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s">
         <v>88</v>
@@ -3012,7 +3000,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3036,10 +3024,10 @@
         <v>91</v>
       </c>
       <c r="I59" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K59" t="s">
         <v>88</v>
@@ -3047,7 +3035,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
         <v>40</v>
@@ -3071,7 +3059,7 @@
         <v>91</v>
       </c>
       <c r="I60" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J60" t="s">
         <v>95</v>
@@ -3082,7 +3070,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
@@ -3117,7 +3105,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
         <v>41</v>
@@ -3152,7 +3140,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
         <v>42</v>
@@ -3187,7 +3175,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
         <v>43</v>
@@ -3208,13 +3196,13 @@
         <v>89</v>
       </c>
       <c r="H64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s">
         <v>88</v>
@@ -3222,7 +3210,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
         <v>44</v>
@@ -3243,13 +3231,13 @@
         <v>89</v>
       </c>
       <c r="H65" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J65" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K65" t="s">
         <v>88</v>
@@ -3257,7 +3245,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -3278,13 +3266,13 @@
         <v>89</v>
       </c>
       <c r="H66" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I66" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J66" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K66" t="s">
         <v>88</v>
@@ -3292,7 +3280,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
         <v>45</v>
@@ -3313,13 +3301,13 @@
         <v>89</v>
       </c>
       <c r="H67" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I67" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J67" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K67" t="s">
         <v>88</v>
@@ -3327,7 +3315,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
         <v>45</v>
@@ -3348,13 +3336,13 @@
         <v>89</v>
       </c>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I68" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J68" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s">
         <v>88</v>
@@ -3362,7 +3350,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
         <v>45</v>
@@ -3383,13 +3371,13 @@
         <v>89</v>
       </c>
       <c r="H69" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J69" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s">
         <v>88</v>
@@ -3397,7 +3385,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
         <v>46</v>
@@ -3421,7 +3409,7 @@
         <v>91</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s">
         <v>93</v>
@@ -3432,7 +3420,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>46</v>
@@ -3456,7 +3444,7 @@
         <v>91</v>
       </c>
       <c r="I71" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J71" t="s">
         <v>93</v>
@@ -3467,7 +3455,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
         <v>47</v>
@@ -3494,7 +3482,7 @@
         <v>70</v>
       </c>
       <c r="J72" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K72" t="s">
         <v>88</v>

--- a/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F411998-25DC-1442-BFAF-8BCEF30F3CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA584D-E89E-B94D-B4AE-3FF8E622FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="195">
   <si>
     <t>DOI</t>
   </si>
@@ -554,6 +554,57 @@
   </si>
   <si>
     <t>Characteristic concentration</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig14</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig15</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig16</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1038/s43018-023-00607-x</t>
   </si>
 </sst>
 </file>
@@ -954,14 +1005,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F50" zoomScale="232" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="C62" zoomScale="232" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -3140,34 +3192,34 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="D63" t="s">
-        <v>6</v>
+      <c r="D63">
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K63" t="s">
         <v>88</v>
@@ -3175,22 +3227,22 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
-      <c r="D64" t="s">
-        <v>6</v>
+      <c r="D64">
+        <v>10</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
         <v>89</v>
@@ -3210,34 +3262,34 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D65" t="s">
-        <v>6</v>
+      <c r="D65">
+        <v>11</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
         <v>89</v>
       </c>
       <c r="H65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I65" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K65" t="s">
         <v>88</v>
@@ -3245,34 +3297,34 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D66" t="s">
-        <v>6</v>
+      <c r="D66">
+        <v>12</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
         <v>89</v>
       </c>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K66" t="s">
         <v>88</v>
@@ -3280,34 +3332,34 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
-      <c r="D67" t="s">
-        <v>8</v>
+      <c r="D67">
+        <v>12</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
         <v>89</v>
       </c>
       <c r="H67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s">
         <v>88</v>
@@ -3315,34 +3367,34 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
-        <v>9</v>
+      <c r="D68">
+        <v>14</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
         <v>89</v>
       </c>
       <c r="H68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K68" t="s">
         <v>88</v>
@@ -3350,34 +3402,34 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
       </c>
-      <c r="D69" t="s">
-        <v>12</v>
+      <c r="D69">
+        <v>15</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G69" t="s">
         <v>89</v>
       </c>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K69" t="s">
         <v>88</v>
@@ -3385,34 +3437,34 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
-      <c r="D70" t="s">
-        <v>6</v>
+      <c r="D70">
+        <v>16</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J70" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K70" t="s">
         <v>88</v>
@@ -3420,34 +3472,34 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
       </c>
-      <c r="D71" t="s">
-        <v>8</v>
+      <c r="D71">
+        <v>2</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J71" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K71" t="s">
         <v>88</v>
@@ -3455,36 +3507,596 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
+        <v>89</v>
+      </c>
+      <c r="H72" t="s">
+        <v>96</v>
+      </c>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+      <c r="K72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" t="s">
+        <v>96</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+      <c r="J73" t="s">
+        <v>96</v>
+      </c>
+      <c r="K73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" t="s">
+        <v>89</v>
+      </c>
+      <c r="H74" t="s">
+        <v>96</v>
+      </c>
+      <c r="I74" t="s">
+        <v>96</v>
+      </c>
+      <c r="J74" t="s">
+        <v>96</v>
+      </c>
+      <c r="K74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+      <c r="G75" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" t="s">
+        <v>96</v>
+      </c>
+      <c r="I75" t="s">
+        <v>96</v>
+      </c>
+      <c r="J75" t="s">
+        <v>96</v>
+      </c>
+      <c r="K75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76" t="s">
+        <v>96</v>
+      </c>
+      <c r="I76" t="s">
+        <v>96</v>
+      </c>
+      <c r="J76" t="s">
+        <v>96</v>
+      </c>
+      <c r="K76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I77" t="s">
+        <v>96</v>
+      </c>
+      <c r="J77" t="s">
+        <v>96</v>
+      </c>
+      <c r="K77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" t="s">
+        <v>89</v>
+      </c>
+      <c r="H78" t="s">
+        <v>96</v>
+      </c>
+      <c r="I78" t="s">
+        <v>96</v>
+      </c>
+      <c r="J78" t="s">
+        <v>96</v>
+      </c>
+      <c r="K78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>77</v>
+      </c>
+      <c r="G79" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" t="s">
+        <v>95</v>
+      </c>
+      <c r="J79" t="s">
+        <v>95</v>
+      </c>
+      <c r="K79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s">
+        <v>89</v>
+      </c>
+      <c r="H80" t="s">
+        <v>96</v>
+      </c>
+      <c r="I80" t="s">
+        <v>96</v>
+      </c>
+      <c r="J80" t="s">
+        <v>96</v>
+      </c>
+      <c r="K80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" t="s">
+        <v>102</v>
+      </c>
+      <c r="J81" t="s">
+        <v>97</v>
+      </c>
+      <c r="K81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s">
+        <v>89</v>
+      </c>
+      <c r="H82" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" t="s">
+        <v>97</v>
+      </c>
+      <c r="J82" t="s">
+        <v>97</v>
+      </c>
+      <c r="K82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" t="s">
+        <v>97</v>
+      </c>
+      <c r="I83" t="s">
+        <v>97</v>
+      </c>
+      <c r="J83" t="s">
+        <v>97</v>
+      </c>
+      <c r="K83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>82</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84" t="s">
+        <v>97</v>
+      </c>
+      <c r="J84" t="s">
+        <v>97</v>
+      </c>
+      <c r="K84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>82</v>
+      </c>
+      <c r="G85" t="s">
+        <v>89</v>
+      </c>
+      <c r="H85" t="s">
+        <v>97</v>
+      </c>
+      <c r="I85" t="s">
+        <v>97</v>
+      </c>
+      <c r="J85" t="s">
+        <v>97</v>
+      </c>
+      <c r="K85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" t="s">
+        <v>93</v>
+      </c>
+      <c r="J86" t="s">
+        <v>93</v>
+      </c>
+      <c r="K86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
+        <v>81</v>
+      </c>
+      <c r="G87" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J87" t="s">
+        <v>93</v>
+      </c>
+      <c r="K87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B88" t="s">
         <v>47</v>
       </c>
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
         <v>6</v>
       </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
         <v>70</v>
       </c>
-      <c r="G72" t="s">
-        <v>90</v>
-      </c>
-      <c r="H72" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="G88" t="s">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s">
+        <v>91</v>
+      </c>
+      <c r="I88" t="s">
         <v>70</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J88" t="s">
         <v>103</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K88" t="s">
         <v>88</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cancer/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cancer/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA584D-E89E-B94D-B4AE-3FF8E622FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B56313-2B54-F144-846C-85119905AFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3620" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>10.1038:s43018-023-00656-2</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Shift in VEM sensitivity</t>
   </si>
   <si>
@@ -277,12 +274,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -605,6 +596,15 @@
   </si>
   <si>
     <t>10.1038/s43018-023-00607-x</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C62" zoomScale="232" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="232" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1022,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1037,27 +1037,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1072,27 +1072,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1107,27 +1107,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1142,27 +1142,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1177,27 +1177,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1212,27 +1212,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
         <v>91</v>
       </c>
-      <c r="I6" t="s">
-        <v>94</v>
-      </c>
       <c r="J6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1247,27 +1247,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
         <v>91</v>
       </c>
-      <c r="I7" t="s">
-        <v>94</v>
-      </c>
       <c r="J7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1282,27 +1282,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
         <v>96</v>
       </c>
-      <c r="I8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>99</v>
-      </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1317,27 +1317,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
         <v>96</v>
       </c>
-      <c r="I9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" t="s">
-        <v>99</v>
-      </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1352,27 +1352,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
         <v>96</v>
       </c>
-      <c r="I10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s">
-        <v>99</v>
-      </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1387,27 +1387,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
         <v>96</v>
       </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" t="s">
-        <v>99</v>
-      </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1422,27 +1422,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="s">
         <v>91</v>
       </c>
-      <c r="I12" t="s">
-        <v>94</v>
-      </c>
       <c r="J12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1457,27 +1457,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
         <v>90</v>
       </c>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" t="s">
-        <v>93</v>
-      </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1492,27 +1492,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
         <v>90</v>
       </c>
-      <c r="H14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" t="s">
-        <v>93</v>
-      </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1527,27 +1527,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" t="s">
         <v>90</v>
       </c>
-      <c r="H15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" t="s">
-        <v>93</v>
-      </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1562,27 +1562,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" t="s">
         <v>90</v>
       </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" t="s">
-        <v>93</v>
-      </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1597,27 +1597,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" t="s">
         <v>90</v>
       </c>
-      <c r="H17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" t="s">
-        <v>93</v>
-      </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1632,27 +1632,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
         <v>90</v>
       </c>
-      <c r="H18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" t="s">
-        <v>93</v>
-      </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1667,27 +1667,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" t="s">
         <v>90</v>
       </c>
-      <c r="H19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" t="s">
-        <v>93</v>
-      </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1702,27 +1702,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" t="s">
         <v>90</v>
       </c>
-      <c r="H20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" t="s">
-        <v>93</v>
-      </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1737,27 +1737,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" t="s">
         <v>90</v>
       </c>
-      <c r="H21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" t="s">
-        <v>93</v>
-      </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -1772,27 +1772,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -1807,27 +1807,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -1842,27 +1842,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -1877,27 +1877,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1912,27 +1912,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" t="s">
         <v>90</v>
       </c>
-      <c r="H26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" t="s">
-        <v>93</v>
-      </c>
       <c r="K26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -1947,27 +1947,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" t="s">
         <v>90</v>
       </c>
-      <c r="H27" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" t="s">
-        <v>93</v>
-      </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1982,27 +1982,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" t="s">
         <v>90</v>
       </c>
-      <c r="H28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" t="s">
-        <v>93</v>
-      </c>
       <c r="K28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -2017,27 +2017,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" t="s">
         <v>90</v>
       </c>
-      <c r="H29" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" t="s">
-        <v>93</v>
-      </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -2052,27 +2052,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -2087,27 +2087,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -2122,27 +2122,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
         <v>90</v>
       </c>
-      <c r="H32" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" t="s">
-        <v>92</v>
-      </c>
-      <c r="J32" t="s">
-        <v>93</v>
-      </c>
       <c r="K32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -2157,27 +2157,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" t="s">
         <v>90</v>
       </c>
-      <c r="H33" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" t="s">
-        <v>93</v>
-      </c>
       <c r="K33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -2192,27 +2192,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
         <v>90</v>
       </c>
-      <c r="H34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" t="s">
-        <v>93</v>
-      </c>
       <c r="K34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -2227,27 +2227,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" t="s">
         <v>90</v>
       </c>
-      <c r="H35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" t="s">
-        <v>93</v>
-      </c>
       <c r="K35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -2262,27 +2262,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s">
         <v>90</v>
       </c>
-      <c r="H36" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" t="s">
-        <v>93</v>
-      </c>
       <c r="K36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -2297,27 +2297,27 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" t="s">
         <v>90</v>
       </c>
-      <c r="H37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" t="s">
-        <v>93</v>
-      </c>
       <c r="K37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -2332,27 +2332,27 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -2367,27 +2367,27 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
@@ -2402,27 +2402,27 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
@@ -2437,27 +2437,27 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -2472,27 +2472,27 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -2507,27 +2507,27 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" t="s">
         <v>90</v>
       </c>
-      <c r="H43" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" t="s">
-        <v>93</v>
-      </c>
       <c r="J43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
@@ -2542,27 +2542,27 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
@@ -2577,27 +2577,27 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
@@ -2612,27 +2612,27 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
@@ -2647,27 +2647,27 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -2682,27 +2682,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
@@ -2717,27 +2717,27 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
         <v>39</v>
@@ -2752,27 +2752,27 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
         <v>39</v>
@@ -2787,27 +2787,27 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
         <v>39</v>
@@ -2822,27 +2822,27 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
         <v>39</v>
@@ -2857,27 +2857,27 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -2892,27 +2892,27 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -2927,27 +2927,27 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -2962,27 +2962,27 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -2997,27 +2997,27 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J57" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3032,27 +3032,27 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3067,27 +3067,27 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K59" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
         <v>40</v>
@@ -3102,27 +3102,27 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J60" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
@@ -3137,27 +3137,27 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" t="s">
         <v>90</v>
       </c>
-      <c r="H61" t="s">
-        <v>91</v>
-      </c>
-      <c r="I61" t="s">
-        <v>92</v>
-      </c>
-      <c r="J61" t="s">
-        <v>93</v>
-      </c>
       <c r="K61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
         <v>41</v>
@@ -3172,30 +3172,30 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s">
+        <v>87</v>
+      </c>
+      <c r="H62" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+      <c r="J62" t="s">
         <v>90</v>
       </c>
-      <c r="H62" t="s">
-        <v>91</v>
-      </c>
-      <c r="I62" t="s">
-        <v>92</v>
-      </c>
-      <c r="J62" t="s">
-        <v>93</v>
-      </c>
       <c r="K62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3207,30 +3207,30 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3242,30 +3242,30 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K64" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3277,30 +3277,30 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3312,30 +3312,30 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K66" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3347,30 +3347,30 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K67" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3382,30 +3382,30 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3417,30 +3417,30 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3452,30 +3452,30 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3487,30 +3487,30 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3522,30 +3522,30 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3557,30 +3557,30 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K73" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3592,30 +3592,30 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I74" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J74" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K74" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3627,31 +3627,31 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" t="s">
         <v>191</v>
       </c>
-      <c r="B76" t="s">
-        <v>194</v>
-      </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
@@ -3662,30 +3662,30 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3697,30 +3697,30 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K77" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3732,27 +3732,27 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K78" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
         <v>42</v>
@@ -3767,27 +3767,27 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
         <v>43</v>
@@ -3802,27 +3802,27 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K80" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
         <v>44</v>
@@ -3837,27 +3837,27 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I81" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J81" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K81" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
         <v>45</v>
@@ -3872,27 +3872,27 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K82" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
         <v>45</v>
@@ -3907,27 +3907,27 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I83" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J83" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K83" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
         <v>45</v>
@@ -3942,27 +3942,27 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K84" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
         <v>45</v>
@@ -3977,27 +3977,27 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
         <v>46</v>
@@ -4012,27 +4012,27 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G86" t="s">
+        <v>87</v>
+      </c>
+      <c r="H86" t="s">
+        <v>88</v>
+      </c>
+      <c r="I86" t="s">
         <v>90</v>
       </c>
-      <c r="H86" t="s">
-        <v>91</v>
-      </c>
-      <c r="I86" t="s">
-        <v>93</v>
-      </c>
       <c r="J86" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
         <v>46</v>
@@ -4047,27 +4047,27 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s">
+        <v>88</v>
+      </c>
+      <c r="I87" t="s">
         <v>90</v>
       </c>
-      <c r="H87" t="s">
-        <v>91</v>
-      </c>
-      <c r="I87" t="s">
-        <v>93</v>
-      </c>
       <c r="J87" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
         <v>47</v>
@@ -4082,22 +4082,22 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G88" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J88" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
